--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">EDIT Distance [Very Imp]</t>
@@ -1658,11 +1661,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2340,7 +2343,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2354,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,7 +2365,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,10 +2373,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,10 +2384,10 @@
         <v>55</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,10 +2395,10 @@
         <v>55</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2403,10 +2406,10 @@
         <v>55</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2414,7 +2417,7 @@
         <v>55</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>11</v>
@@ -2425,10 +2428,10 @@
         <v>55</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,7 +2439,7 @@
         <v>55</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>11</v>
@@ -2447,7 +2450,7 @@
         <v>55</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>11</v>
@@ -2458,7 +2461,7 @@
         <v>55</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>11</v>
@@ -2469,7 +2472,7 @@
         <v>55</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>11</v>
@@ -2480,7 +2483,7 @@
         <v>55</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>11</v>
@@ -2491,7 +2494,7 @@
         <v>55</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>11</v>
@@ -2502,7 +2505,7 @@
         <v>55</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>11</v>
@@ -2513,7 +2516,7 @@
         <v>55</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>11</v>
@@ -2524,7 +2527,7 @@
         <v>55</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>11</v>
@@ -2535,7 +2538,7 @@
         <v>55</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>11</v>
@@ -2546,7 +2549,7 @@
         <v>55</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>11</v>
@@ -2557,7 +2560,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>11</v>
@@ -2568,7 +2571,7 @@
         <v>55</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>11</v>
@@ -2579,7 +2582,7 @@
         <v>55</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>11</v>
@@ -2590,7 +2593,7 @@
         <v>55</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>11</v>
@@ -2601,7 +2604,7 @@
         <v>55</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>11</v>
@@ -2612,7 +2615,7 @@
         <v>55</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>11</v>
@@ -2623,7 +2626,7 @@
         <v>55</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>11</v>
@@ -2634,7 +2637,7 @@
         <v>55</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>11</v>
@@ -2645,7 +2648,7 @@
         <v>55</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>11</v>
@@ -2656,7 +2659,7 @@
         <v>55</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>11</v>
@@ -2667,7 +2670,7 @@
         <v>55</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>11</v>
@@ -2678,7 +2681,7 @@
         <v>55</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>11</v>
@@ -2689,7 +2692,7 @@
         <v>55</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>11</v>
@@ -2705,10 +2708,10 @@
     </row>
     <row r="101" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>11</v>
@@ -2716,10 +2719,10 @@
     </row>
     <row r="102" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>11</v>
@@ -2727,10 +2730,10 @@
     </row>
     <row r="103" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>11</v>
@@ -2738,10 +2741,10 @@
     </row>
     <row r="104" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>11</v>
@@ -2749,10 +2752,10 @@
     </row>
     <row r="105" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>11</v>
@@ -2760,10 +2763,10 @@
     </row>
     <row r="106" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>11</v>
@@ -2771,10 +2774,10 @@
     </row>
     <row r="107" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>11</v>
@@ -2782,10 +2785,10 @@
     </row>
     <row r="108" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>11</v>
@@ -2793,10 +2796,10 @@
     </row>
     <row r="109" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>11</v>
@@ -2804,10 +2807,10 @@
     </row>
     <row r="110" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>11</v>
@@ -2815,10 +2818,10 @@
     </row>
     <row r="111" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>11</v>
@@ -2826,10 +2829,10 @@
     </row>
     <row r="112" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>11</v>
@@ -2837,10 +2840,10 @@
     </row>
     <row r="113" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>11</v>
@@ -2848,10 +2851,10 @@
     </row>
     <row r="114" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>11</v>
@@ -2859,10 +2862,10 @@
     </row>
     <row r="115" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>11</v>
@@ -2870,10 +2873,10 @@
     </row>
     <row r="116" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>11</v>
@@ -2881,10 +2884,10 @@
     </row>
     <row r="117" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>11</v>
@@ -2892,10 +2895,10 @@
     </row>
     <row r="118" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>11</v>
@@ -2903,10 +2906,10 @@
     </row>
     <row r="119" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>11</v>
@@ -2914,10 +2917,10 @@
     </row>
     <row r="120" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>11</v>
@@ -2925,10 +2928,10 @@
     </row>
     <row r="121" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>11</v>
@@ -2936,10 +2939,10 @@
     </row>
     <row r="122" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>11</v>
@@ -2947,10 +2950,10 @@
     </row>
     <row r="123" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>11</v>
@@ -2958,10 +2961,10 @@
     </row>
     <row r="124" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>11</v>
@@ -2969,10 +2972,10 @@
     </row>
     <row r="125" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>11</v>
@@ -2980,10 +2983,10 @@
     </row>
     <row r="126" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>11</v>
@@ -2991,10 +2994,10 @@
     </row>
     <row r="127" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>11</v>
@@ -3002,10 +3005,10 @@
     </row>
     <row r="128" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>11</v>
@@ -3013,10 +3016,10 @@
     </row>
     <row r="129" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>11</v>
@@ -3024,10 +3027,10 @@
     </row>
     <row r="130" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>11</v>
@@ -3035,10 +3038,10 @@
     </row>
     <row r="131" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>11</v>
@@ -3046,10 +3049,10 @@
     </row>
     <row r="132" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>11</v>
@@ -3057,10 +3060,10 @@
     </row>
     <row r="133" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>11</v>
@@ -3068,10 +3071,10 @@
     </row>
     <row r="134" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>11</v>
@@ -3079,10 +3082,10 @@
     </row>
     <row r="135" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>11</v>
@@ -3090,10 +3093,10 @@
     </row>
     <row r="136" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>11</v>
@@ -3108,10 +3111,10 @@
     </row>
     <row r="139" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>11</v>
@@ -3119,10 +3122,10 @@
     </row>
     <row r="140" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>11</v>
@@ -3130,10 +3133,10 @@
     </row>
     <row r="141" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>11</v>
@@ -3141,10 +3144,10 @@
     </row>
     <row r="142" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>11</v>
@@ -3152,10 +3155,10 @@
     </row>
     <row r="143" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>11</v>
@@ -3163,10 +3166,10 @@
     </row>
     <row r="144" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>11</v>
@@ -3174,10 +3177,10 @@
     </row>
     <row r="145" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>11</v>
@@ -3185,10 +3188,10 @@
     </row>
     <row r="146" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>11</v>
@@ -3196,10 +3199,10 @@
     </row>
     <row r="147" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>11</v>
@@ -3207,10 +3210,10 @@
     </row>
     <row r="148" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>11</v>
@@ -3218,10 +3221,10 @@
     </row>
     <row r="149" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>11</v>
@@ -3229,10 +3232,10 @@
     </row>
     <row r="150" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>11</v>
@@ -3240,10 +3243,10 @@
     </row>
     <row r="151" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>11</v>
@@ -3251,10 +3254,10 @@
     </row>
     <row r="152" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>11</v>
@@ -3262,10 +3265,10 @@
     </row>
     <row r="153" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>11</v>
@@ -3273,10 +3276,10 @@
     </row>
     <row r="154" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>11</v>
@@ -3284,10 +3287,10 @@
     </row>
     <row r="155" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>11</v>
@@ -3295,10 +3298,10 @@
     </row>
     <row r="156" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>11</v>
@@ -3306,10 +3309,10 @@
     </row>
     <row r="157" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>11</v>
@@ -3317,10 +3320,10 @@
     </row>
     <row r="158" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>11</v>
@@ -3328,10 +3331,10 @@
     </row>
     <row r="159" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>11</v>
@@ -3339,10 +3342,10 @@
     </row>
     <row r="160" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>11</v>
@@ -3350,10 +3353,10 @@
     </row>
     <row r="161" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>11</v>
@@ -3361,10 +3364,10 @@
     </row>
     <row r="162" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>11</v>
@@ -3372,10 +3375,10 @@
     </row>
     <row r="163" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>11</v>
@@ -3383,10 +3386,10 @@
     </row>
     <row r="164" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>11</v>
@@ -3394,10 +3397,10 @@
     </row>
     <row r="165" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>11</v>
@@ -3405,10 +3408,10 @@
     </row>
     <row r="166" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>11</v>
@@ -3416,10 +3419,10 @@
     </row>
     <row r="167" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>11</v>
@@ -3427,10 +3430,10 @@
     </row>
     <row r="168" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>11</v>
@@ -3438,10 +3441,10 @@
     </row>
     <row r="169" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>11</v>
@@ -3449,10 +3452,10 @@
     </row>
     <row r="170" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>11</v>
@@ -3460,10 +3463,10 @@
     </row>
     <row r="171" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>11</v>
@@ -3471,10 +3474,10 @@
     </row>
     <row r="172" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>11</v>
@@ -3482,10 +3485,10 @@
     </row>
     <row r="173" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>11</v>
@@ -3493,10 +3496,10 @@
     </row>
     <row r="174" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>11</v>
@@ -3511,10 +3514,10 @@
     </row>
     <row r="177" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>11</v>
@@ -3522,10 +3525,10 @@
     </row>
     <row r="178" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>11</v>
@@ -3533,10 +3536,10 @@
     </row>
     <row r="179" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>11</v>
@@ -3544,10 +3547,10 @@
     </row>
     <row r="180" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>11</v>
@@ -3555,10 +3558,10 @@
     </row>
     <row r="181" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>11</v>
@@ -3566,10 +3569,10 @@
     </row>
     <row r="182" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>11</v>
@@ -3577,10 +3580,10 @@
     </row>
     <row r="183" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>11</v>
@@ -3588,10 +3591,10 @@
     </row>
     <row r="184" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>11</v>
@@ -3599,10 +3602,10 @@
     </row>
     <row r="185" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>11</v>
@@ -3610,10 +3613,10 @@
     </row>
     <row r="186" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>11</v>
@@ -3621,10 +3624,10 @@
     </row>
     <row r="187" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>11</v>
@@ -3632,10 +3635,10 @@
     </row>
     <row r="188" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>11</v>
@@ -3643,10 +3646,10 @@
     </row>
     <row r="189" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>11</v>
@@ -3654,10 +3657,10 @@
     </row>
     <row r="190" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>11</v>
@@ -3665,10 +3668,10 @@
     </row>
     <row r="191" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>11</v>
@@ -3676,10 +3679,10 @@
     </row>
     <row r="192" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>11</v>
@@ -3687,10 +3690,10 @@
     </row>
     <row r="193" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>11</v>
@@ -3698,10 +3701,10 @@
     </row>
     <row r="194" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>11</v>
@@ -3709,10 +3712,10 @@
     </row>
     <row r="195" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>11</v>
@@ -3720,10 +3723,10 @@
     </row>
     <row r="196" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>11</v>
@@ -3731,10 +3734,10 @@
     </row>
     <row r="197" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>11</v>
@@ -3742,10 +3745,10 @@
     </row>
     <row r="198" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>11</v>
@@ -3753,10 +3756,10 @@
     </row>
     <row r="199" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>11</v>
@@ -3764,10 +3767,10 @@
     </row>
     <row r="200" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>11</v>
@@ -3775,10 +3778,10 @@
     </row>
     <row r="201" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>11</v>
@@ -3786,10 +3789,10 @@
     </row>
     <row r="202" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>11</v>
@@ -3797,10 +3800,10 @@
     </row>
     <row r="203" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>11</v>
@@ -3808,10 +3811,10 @@
     </row>
     <row r="204" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>11</v>
@@ -3819,10 +3822,10 @@
     </row>
     <row r="205" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>11</v>
@@ -3830,10 +3833,10 @@
     </row>
     <row r="206" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>11</v>
@@ -3841,10 +3844,10 @@
     </row>
     <row r="207" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>11</v>
@@ -3852,10 +3855,10 @@
     </row>
     <row r="208" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>11</v>
@@ -3863,10 +3866,10 @@
     </row>
     <row r="209" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>11</v>
@@ -3874,10 +3877,10 @@
     </row>
     <row r="210" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>11</v>
@@ -3885,10 +3888,10 @@
     </row>
     <row r="211" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>11</v>
@@ -3906,10 +3909,10 @@
     </row>
     <row r="214" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>11</v>
@@ -3917,10 +3920,10 @@
     </row>
     <row r="215" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>11</v>
@@ -3928,10 +3931,10 @@
     </row>
     <row r="216" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>11</v>
@@ -3939,10 +3942,10 @@
     </row>
     <row r="217" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>11</v>
@@ -3950,10 +3953,10 @@
     </row>
     <row r="218" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>11</v>
@@ -3961,10 +3964,10 @@
     </row>
     <row r="219" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>11</v>
@@ -3972,10 +3975,10 @@
     </row>
     <row r="220" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>11</v>
@@ -3983,10 +3986,10 @@
     </row>
     <row r="221" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221" s="5" t="s">
         <v>11</v>
@@ -3994,10 +3997,10 @@
     </row>
     <row r="222" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>11</v>
@@ -4005,10 +4008,10 @@
     </row>
     <row r="223" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>11</v>
@@ -4016,10 +4019,10 @@
     </row>
     <row r="224" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>11</v>
@@ -4027,10 +4030,10 @@
     </row>
     <row r="225" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>11</v>
@@ -4038,10 +4041,10 @@
     </row>
     <row r="226" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>11</v>
@@ -4049,10 +4052,10 @@
     </row>
     <row r="227" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>11</v>
@@ -4060,10 +4063,10 @@
     </row>
     <row r="228" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>11</v>
@@ -4071,10 +4074,10 @@
     </row>
     <row r="229" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>11</v>
@@ -4082,10 +4085,10 @@
     </row>
     <row r="230" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>11</v>
@@ -4093,10 +4096,10 @@
     </row>
     <row r="231" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>11</v>
@@ -4104,10 +4107,10 @@
     </row>
     <row r="232" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>11</v>
@@ -4115,10 +4118,10 @@
     </row>
     <row r="233" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>11</v>
@@ -4126,10 +4129,10 @@
     </row>
     <row r="234" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>11</v>
@@ -4137,10 +4140,10 @@
     </row>
     <row r="235" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>11</v>
@@ -4156,10 +4159,10 @@
     </row>
     <row r="238" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>11</v>
@@ -4167,10 +4170,10 @@
     </row>
     <row r="239" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>11</v>
@@ -4178,10 +4181,10 @@
     </row>
     <row r="240" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>11</v>
@@ -4189,10 +4192,10 @@
     </row>
     <row r="241" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>11</v>
@@ -4200,10 +4203,10 @@
     </row>
     <row r="242" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>11</v>
@@ -4211,10 +4214,10 @@
     </row>
     <row r="243" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>11</v>
@@ -4222,10 +4225,10 @@
     </row>
     <row r="244" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>11</v>
@@ -4233,10 +4236,10 @@
     </row>
     <row r="245" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C245" s="5" t="s">
         <v>11</v>
@@ -4244,10 +4247,10 @@
     </row>
     <row r="246" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>11</v>
@@ -4255,10 +4258,10 @@
     </row>
     <row r="247" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>11</v>
@@ -4266,10 +4269,10 @@
     </row>
     <row r="248" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>11</v>
@@ -4277,10 +4280,10 @@
     </row>
     <row r="249" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>11</v>
@@ -4288,10 +4291,10 @@
     </row>
     <row r="250" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>11</v>
@@ -4299,10 +4302,10 @@
     </row>
     <row r="251" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>11</v>
@@ -4310,10 +4313,10 @@
     </row>
     <row r="252" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>11</v>
@@ -4321,10 +4324,10 @@
     </row>
     <row r="253" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>11</v>
@@ -4332,10 +4335,10 @@
     </row>
     <row r="254" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>11</v>
@@ -4343,10 +4346,10 @@
     </row>
     <row r="255" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>11</v>
@@ -4354,10 +4357,10 @@
     </row>
     <row r="256" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>11</v>
@@ -4365,10 +4368,10 @@
     </row>
     <row r="257" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>11</v>
@@ -4376,10 +4379,10 @@
     </row>
     <row r="258" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>11</v>
@@ -4387,10 +4390,10 @@
     </row>
     <row r="259" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>11</v>
@@ -4398,10 +4401,10 @@
     </row>
     <row r="260" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>11</v>
@@ -4409,10 +4412,10 @@
     </row>
     <row r="261" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>11</v>
@@ -4420,10 +4423,10 @@
     </row>
     <row r="262" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>11</v>
@@ -4431,10 +4434,10 @@
     </row>
     <row r="263" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>11</v>
@@ -4442,10 +4445,10 @@
     </row>
     <row r="264" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>11</v>
@@ -4453,10 +4456,10 @@
     </row>
     <row r="265" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>11</v>
@@ -4464,10 +4467,10 @@
     </row>
     <row r="266" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>11</v>
@@ -4475,10 +4478,10 @@
     </row>
     <row r="267" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>11</v>
@@ -4486,10 +4489,10 @@
     </row>
     <row r="268" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>11</v>
@@ -4497,10 +4500,10 @@
     </row>
     <row r="269" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>11</v>
@@ -4508,10 +4511,10 @@
     </row>
     <row r="270" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>11</v>
@@ -4519,10 +4522,10 @@
     </row>
     <row r="271" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>11</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="272" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>11</v>
@@ -4549,10 +4552,10 @@
     </row>
     <row r="275" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>11</v>
@@ -4560,10 +4563,10 @@
     </row>
     <row r="276" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>11</v>
@@ -4571,10 +4574,10 @@
     </row>
     <row r="277" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>11</v>
@@ -4582,10 +4585,10 @@
     </row>
     <row r="278" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>11</v>
@@ -4593,10 +4596,10 @@
     </row>
     <row r="279" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>11</v>
@@ -4604,10 +4607,10 @@
     </row>
     <row r="280" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>11</v>
@@ -4615,10 +4618,10 @@
     </row>
     <row r="281" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>11</v>
@@ -4626,10 +4629,10 @@
     </row>
     <row r="282" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>11</v>
@@ -4637,10 +4640,10 @@
     </row>
     <row r="283" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>11</v>
@@ -4648,10 +4651,10 @@
     </row>
     <row r="284" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>11</v>
@@ -4659,10 +4662,10 @@
     </row>
     <row r="285" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>11</v>
@@ -4670,10 +4673,10 @@
     </row>
     <row r="286" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>11</v>
@@ -4681,10 +4684,10 @@
     </row>
     <row r="287" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>11</v>
@@ -4692,10 +4695,10 @@
     </row>
     <row r="288" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>11</v>
@@ -4703,10 +4706,10 @@
     </row>
     <row r="289" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>11</v>
@@ -4714,10 +4717,10 @@
     </row>
     <row r="290" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>11</v>
@@ -4725,10 +4728,10 @@
     </row>
     <row r="291" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>11</v>
@@ -4736,10 +4739,10 @@
     </row>
     <row r="292" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>11</v>
@@ -4747,10 +4750,10 @@
     </row>
     <row r="293" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>11</v>
@@ -4766,10 +4769,10 @@
     </row>
     <row r="296" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>11</v>
@@ -4777,10 +4780,10 @@
     </row>
     <row r="297" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>11</v>
@@ -4788,10 +4791,10 @@
     </row>
     <row r="298" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>11</v>
@@ -4799,10 +4802,10 @@
     </row>
     <row r="299" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>11</v>
@@ -4810,10 +4813,10 @@
     </row>
     <row r="300" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>11</v>
@@ -4821,10 +4824,10 @@
     </row>
     <row r="301" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>11</v>
@@ -4832,10 +4835,10 @@
     </row>
     <row r="302" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>11</v>
@@ -4843,10 +4846,10 @@
     </row>
     <row r="303" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>11</v>
@@ -4854,10 +4857,10 @@
     </row>
     <row r="304" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>11</v>
@@ -4865,10 +4868,10 @@
     </row>
     <row r="305" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>11</v>
@@ -4876,10 +4879,10 @@
     </row>
     <row r="306" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>11</v>
@@ -4887,10 +4890,10 @@
     </row>
     <row r="307" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>11</v>
@@ -4898,10 +4901,10 @@
     </row>
     <row r="308" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>11</v>
@@ -4909,10 +4912,10 @@
     </row>
     <row r="309" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>11</v>
@@ -4920,10 +4923,10 @@
     </row>
     <row r="310" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>11</v>
@@ -4931,10 +4934,10 @@
     </row>
     <row r="311" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>11</v>
@@ -4942,10 +4945,10 @@
     </row>
     <row r="312" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>11</v>
@@ -4953,10 +4956,10 @@
     </row>
     <row r="313" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>11</v>
@@ -4964,10 +4967,10 @@
     </row>
     <row r="314" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>11</v>
@@ -4975,10 +4978,10 @@
     </row>
     <row r="315" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>11</v>
@@ -4986,10 +4989,10 @@
     </row>
     <row r="316" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>11</v>
@@ -4997,10 +5000,10 @@
     </row>
     <row r="317" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>11</v>
@@ -5008,10 +5011,10 @@
     </row>
     <row r="318" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>11</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="319" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>11</v>
@@ -5030,10 +5033,10 @@
     </row>
     <row r="320" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>11</v>
@@ -5041,10 +5044,10 @@
     </row>
     <row r="321" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>11</v>
@@ -5052,10 +5055,10 @@
     </row>
     <row r="322" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>11</v>
@@ -5063,10 +5066,10 @@
     </row>
     <row r="323" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>11</v>
@@ -5074,10 +5077,10 @@
     </row>
     <row r="324" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>11</v>
@@ -5085,10 +5088,10 @@
     </row>
     <row r="325" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>11</v>
@@ -5096,10 +5099,10 @@
     </row>
     <row r="326" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>11</v>
@@ -5107,10 +5110,10 @@
     </row>
     <row r="327" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>11</v>
@@ -5118,10 +5121,10 @@
     </row>
     <row r="328" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>11</v>
@@ -5129,10 +5132,10 @@
     </row>
     <row r="329" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>11</v>
@@ -5140,10 +5143,10 @@
     </row>
     <row r="330" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>11</v>
@@ -5151,10 +5154,10 @@
     </row>
     <row r="331" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>11</v>
@@ -5162,10 +5165,10 @@
     </row>
     <row r="332" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>11</v>
@@ -5173,10 +5176,10 @@
     </row>
     <row r="333" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C333" s="5" t="s">
         <v>11</v>
@@ -5192,10 +5195,10 @@
     </row>
     <row r="336" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>11</v>
@@ -5203,10 +5206,10 @@
     </row>
     <row r="337" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>11</v>
@@ -5214,10 +5217,10 @@
     </row>
     <row r="338" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>11</v>
@@ -5225,10 +5228,10 @@
     </row>
     <row r="339" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>11</v>
@@ -5236,10 +5239,10 @@
     </row>
     <row r="340" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>11</v>
@@ -5247,10 +5250,10 @@
     </row>
     <row r="341" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>11</v>
@@ -5258,10 +5261,10 @@
     </row>
     <row r="342" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>11</v>
@@ -5269,10 +5272,10 @@
     </row>
     <row r="343" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>11</v>
@@ -5280,10 +5283,10 @@
     </row>
     <row r="344" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>11</v>
@@ -5291,10 +5294,10 @@
     </row>
     <row r="345" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>11</v>
@@ -5302,10 +5305,10 @@
     </row>
     <row r="346" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>11</v>
@@ -5313,10 +5316,10 @@
     </row>
     <row r="347" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>11</v>
@@ -5324,10 +5327,10 @@
     </row>
     <row r="348" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>11</v>
@@ -5335,10 +5338,10 @@
     </row>
     <row r="349" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>11</v>
@@ -5346,10 +5349,10 @@
     </row>
     <row r="350" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>11</v>
@@ -5357,10 +5360,10 @@
     </row>
     <row r="351" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>11</v>
@@ -5368,10 +5371,10 @@
     </row>
     <row r="352" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>11</v>
@@ -5379,10 +5382,10 @@
     </row>
     <row r="353" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>11</v>
@@ -5398,10 +5401,10 @@
     </row>
     <row r="356" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>11</v>
@@ -5409,10 +5412,10 @@
     </row>
     <row r="357" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>11</v>
@@ -5420,10 +5423,10 @@
     </row>
     <row r="358" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>11</v>
@@ -5431,10 +5434,10 @@
     </row>
     <row r="359" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>11</v>
@@ -5442,10 +5445,10 @@
     </row>
     <row r="360" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>11</v>
@@ -5453,10 +5456,10 @@
     </row>
     <row r="361" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>11</v>
@@ -5464,10 +5467,10 @@
     </row>
     <row r="362" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>11</v>
@@ -5475,10 +5478,10 @@
     </row>
     <row r="363" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>11</v>
@@ -5486,10 +5489,10 @@
     </row>
     <row r="364" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>11</v>
@@ -5497,10 +5500,10 @@
     </row>
     <row r="365" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>11</v>
@@ -5508,10 +5511,10 @@
     </row>
     <row r="366" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>11</v>
@@ -5519,10 +5522,10 @@
     </row>
     <row r="367" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>11</v>
@@ -5530,10 +5533,10 @@
     </row>
     <row r="368" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>11</v>
@@ -5541,10 +5544,10 @@
     </row>
     <row r="369" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>11</v>
@@ -5552,10 +5555,10 @@
     </row>
     <row r="370" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>11</v>
@@ -5563,10 +5566,10 @@
     </row>
     <row r="371" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>11</v>
@@ -5574,10 +5577,10 @@
     </row>
     <row r="372" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>11</v>
@@ -5585,10 +5588,10 @@
     </row>
     <row r="373" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>11</v>
@@ -5596,10 +5599,10 @@
     </row>
     <row r="374" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>11</v>
@@ -5607,10 +5610,10 @@
     </row>
     <row r="375" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>11</v>
@@ -5618,10 +5621,10 @@
     </row>
     <row r="376" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>11</v>
@@ -5629,10 +5632,10 @@
     </row>
     <row r="377" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>11</v>
@@ -5640,10 +5643,10 @@
     </row>
     <row r="378" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>11</v>
@@ -5651,10 +5654,10 @@
     </row>
     <row r="379" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>11</v>
@@ -5662,10 +5665,10 @@
     </row>
     <row r="380" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>11</v>
@@ -5673,10 +5676,10 @@
     </row>
     <row r="381" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>11</v>
@@ -5684,10 +5687,10 @@
     </row>
     <row r="382" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>11</v>
@@ -5695,10 +5698,10 @@
     </row>
     <row r="383" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>11</v>
@@ -5706,10 +5709,10 @@
     </row>
     <row r="384" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>11</v>
@@ -5717,10 +5720,10 @@
     </row>
     <row r="385" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>11</v>
@@ -5728,10 +5731,10 @@
     </row>
     <row r="386" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B386" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>11</v>
@@ -5739,10 +5742,10 @@
     </row>
     <row r="387" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>11</v>
@@ -5750,10 +5753,10 @@
     </row>
     <row r="388" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>11</v>
@@ -5761,10 +5764,10 @@
     </row>
     <row r="389" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>11</v>
@@ -5772,10 +5775,10 @@
     </row>
     <row r="390" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>11</v>
@@ -5783,10 +5786,10 @@
     </row>
     <row r="391" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>11</v>
@@ -5794,10 +5797,10 @@
     </row>
     <row r="392" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>11</v>
@@ -5805,10 +5808,10 @@
     </row>
     <row r="393" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>11</v>
@@ -5816,10 +5819,10 @@
     </row>
     <row r="394" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>11</v>
@@ -5827,10 +5830,10 @@
     </row>
     <row r="395" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>11</v>
@@ -5838,10 +5841,10 @@
     </row>
     <row r="396" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>11</v>
@@ -5849,10 +5852,10 @@
     </row>
     <row r="397" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>11</v>
@@ -5860,10 +5863,10 @@
     </row>
     <row r="398" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>11</v>
@@ -5871,10 +5874,10 @@
     </row>
     <row r="399" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>11</v>
@@ -5890,10 +5893,10 @@
     </row>
     <row r="402" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>11</v>
@@ -5901,10 +5904,10 @@
     </row>
     <row r="403" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>11</v>
@@ -5912,10 +5915,10 @@
     </row>
     <row r="404" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>11</v>
@@ -5923,10 +5926,10 @@
     </row>
     <row r="405" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>11</v>
@@ -5934,10 +5937,10 @@
     </row>
     <row r="406" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>11</v>
@@ -5945,10 +5948,10 @@
     </row>
     <row r="407" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B407" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>11</v>
@@ -5964,10 +5967,10 @@
     </row>
     <row r="410" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>11</v>
@@ -5975,10 +5978,10 @@
     </row>
     <row r="411" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>11</v>
@@ -5986,10 +5989,10 @@
     </row>
     <row r="412" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C412" s="5" t="s">
         <v>11</v>
@@ -5997,10 +6000,10 @@
     </row>
     <row r="413" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>11</v>
@@ -6008,10 +6011,10 @@
     </row>
     <row r="414" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>11</v>
@@ -6019,10 +6022,10 @@
     </row>
     <row r="415" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C415" s="5" t="s">
         <v>11</v>
@@ -6030,10 +6033,10 @@
     </row>
     <row r="416" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B416" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>11</v>
@@ -6041,10 +6044,10 @@
     </row>
     <row r="417" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C417" s="5" t="s">
         <v>11</v>
@@ -6052,10 +6055,10 @@
     </row>
     <row r="418" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C418" s="5" t="s">
         <v>11</v>
@@ -6063,10 +6066,10 @@
     </row>
     <row r="419" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C419" s="5" t="s">
         <v>11</v>
@@ -6074,10 +6077,10 @@
     </row>
     <row r="420" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C420" s="5" t="s">
         <v>11</v>
@@ -6085,10 +6088,10 @@
     </row>
     <row r="421" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>11</v>
@@ -6096,10 +6099,10 @@
     </row>
     <row r="422" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>11</v>
@@ -6107,10 +6110,10 @@
     </row>
     <row r="423" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>11</v>
@@ -6118,10 +6121,10 @@
     </row>
     <row r="424" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C424" s="5" t="s">
         <v>11</v>
@@ -6129,10 +6132,10 @@
     </row>
     <row r="425" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C425" s="5" t="s">
         <v>11</v>
@@ -6140,10 +6143,10 @@
     </row>
     <row r="426" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C426" s="5" t="s">
         <v>11</v>
@@ -6151,10 +6154,10 @@
     </row>
     <row r="427" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>11</v>
@@ -6162,10 +6165,10 @@
     </row>
     <row r="428" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C428" s="5" t="s">
         <v>11</v>
@@ -6173,10 +6176,10 @@
     </row>
     <row r="429" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>11</v>
@@ -6184,10 +6187,10 @@
     </row>
     <row r="430" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C430" s="5" t="s">
         <v>11</v>
@@ -6195,10 +6198,10 @@
     </row>
     <row r="431" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C431" s="5" t="s">
         <v>11</v>
@@ -6206,10 +6209,10 @@
     </row>
     <row r="432" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C432" s="5" t="s">
         <v>11</v>
@@ -6217,10 +6220,10 @@
     </row>
     <row r="433" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C433" s="5" t="s">
         <v>11</v>
@@ -6228,10 +6231,10 @@
     </row>
     <row r="434" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C434" s="5" t="s">
         <v>11</v>
@@ -6239,10 +6242,10 @@
     </row>
     <row r="435" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>11</v>
@@ -6250,10 +6253,10 @@
     </row>
     <row r="436" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>11</v>
@@ -6261,10 +6264,10 @@
     </row>
     <row r="437" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>11</v>
@@ -6272,10 +6275,10 @@
     </row>
     <row r="438" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>11</v>
@@ -6283,10 +6286,10 @@
     </row>
     <row r="439" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>11</v>
@@ -6294,10 +6297,10 @@
     </row>
     <row r="440" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C440" s="5" t="s">
         <v>11</v>
@@ -6305,10 +6308,10 @@
     </row>
     <row r="441" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>11</v>
@@ -6316,10 +6319,10 @@
     </row>
     <row r="442" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>11</v>
@@ -6327,10 +6330,10 @@
     </row>
     <row r="443" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C443" s="5" t="s">
         <v>11</v>
@@ -6338,10 +6341,10 @@
     </row>
     <row r="444" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>11</v>
@@ -6349,10 +6352,10 @@
     </row>
     <row r="445" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C445" s="5" t="s">
         <v>11</v>
@@ -6360,10 +6363,10 @@
     </row>
     <row r="446" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>11</v>
@@ -6371,10 +6374,10 @@
     </row>
     <row r="447" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>11</v>
@@ -6382,10 +6385,10 @@
     </row>
     <row r="448" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C448" s="5" t="s">
         <v>11</v>
@@ -6393,10 +6396,10 @@
     </row>
     <row r="449" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>11</v>
@@ -6404,10 +6407,10 @@
     </row>
     <row r="450" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C450" s="5" t="s">
         <v>11</v>
@@ -6415,10 +6418,10 @@
     </row>
     <row r="451" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C451" s="5" t="s">
         <v>11</v>
@@ -6426,10 +6429,10 @@
     </row>
     <row r="452" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C452" s="5" t="s">
         <v>11</v>
@@ -6437,10 +6440,10 @@
     </row>
     <row r="453" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C453" s="5" t="s">
         <v>11</v>
@@ -6448,10 +6451,10 @@
     </row>
     <row r="454" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C454" s="5" t="s">
         <v>11</v>
@@ -6459,10 +6462,10 @@
     </row>
     <row r="455" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>11</v>
@@ -6470,10 +6473,10 @@
     </row>
     <row r="456" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>11</v>
@@ -6481,10 +6484,10 @@
     </row>
     <row r="457" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C457" s="5" t="s">
         <v>11</v>
@@ -6492,10 +6495,10 @@
     </row>
     <row r="458" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>11</v>
@@ -6503,10 +6506,10 @@
     </row>
     <row r="459" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>11</v>
@@ -6514,10 +6517,10 @@
     </row>
     <row r="460" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C460" s="5" t="s">
         <v>11</v>
@@ -6525,10 +6528,10 @@
     </row>
     <row r="461" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>11</v>
@@ -6536,10 +6539,10 @@
     </row>
     <row r="462" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>11</v>
@@ -6547,10 +6550,10 @@
     </row>
     <row r="463" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>11</v>
@@ -6558,10 +6561,10 @@
     </row>
     <row r="464" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>11</v>
@@ -6569,10 +6572,10 @@
     </row>
     <row r="465" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C465" s="5" t="s">
         <v>11</v>
@@ -6580,10 +6583,10 @@
     </row>
     <row r="466" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>11</v>
@@ -6591,10 +6594,10 @@
     </row>
     <row r="467" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>11</v>
@@ -6602,10 +6605,10 @@
     </row>
     <row r="468" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>11</v>
@@ -6613,10 +6616,10 @@
     </row>
     <row r="469" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>11</v>
@@ -6633,10 +6636,10 @@
     </row>
     <row r="472" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>11</v>
@@ -6644,10 +6647,10 @@
     </row>
     <row r="473" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>11</v>
@@ -6655,10 +6658,10 @@
     </row>
     <row r="474" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>11</v>
@@ -6666,10 +6669,10 @@
     </row>
     <row r="475" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B475" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>11</v>
@@ -6677,10 +6680,10 @@
     </row>
     <row r="476" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>11</v>
@@ -6688,10 +6691,10 @@
     </row>
     <row r="477" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>11</v>
@@ -6699,10 +6702,10 @@
     </row>
     <row r="478" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C478" s="5" t="s">
         <v>11</v>
@@ -6710,10 +6713,10 @@
     </row>
     <row r="479" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C479" s="5" t="s">
         <v>11</v>
@@ -6721,10 +6724,10 @@
     </row>
     <row r="480" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B480" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>11</v>
@@ -6732,10 +6735,10 @@
     </row>
     <row r="481" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C481" s="5" t="s">
         <v>11</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1661,11 +1661,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2519,7 +2519,7 @@
         <v>83</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1661,11 +1661,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2508,7 +2508,7 @@
         <v>82</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1661,11 +1661,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2714,7 +2714,7 @@
         <v>101</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2725,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,7 +2747,7 @@
         <v>104</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,7 +2758,7 @@
         <v>105</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1661,11 +1661,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C92" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D105" activeCellId="0" sqref="D105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2780,7 +2780,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2813,7 +2813,7 @@
         <v>110</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1661,11 +1661,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C114" activeCellId="0" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2824,7 +2824,7 @@
         <v>111</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,7 +2846,7 @@
         <v>113</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,7 +2857,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1661,11 +1661,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C114" activeCellId="0" sqref="C114"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2868,7 +2868,7 @@
         <v>115</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2879,7 +2879,7 @@
         <v>116</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1662,10 +1662,10 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C101" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C116" activeCellId="0" sqref="C116"/>
+      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2890,7 +2890,7 @@
         <v>117</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
